--- a/Project/Phase 2/Sprint 3/Ana Gadelha 59943/Data_Collected_DependencyMetrics.xlsx
+++ b/Project/Phase 2/Sprint 3/Ana Gadelha 59943/Data_Collected_DependencyMetrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana Carolina Gadelha\IdeaProjects\ganttproject2\Project\Phase 2\Sprint 3\Ana Gadelha 59943\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A286DF8B-5D7D-4806-826D-3E275E832E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3D9FDDF9-0F16-4AAD-BD95-626642F5F746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -4984,8 +4984,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:N855"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A839" workbookViewId="0">
+      <selection activeCell="P852" sqref="P852"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27105,27 +27105,27 @@
         <v>228989</v>
       </c>
       <c r="E854" s="18">
-        <f t="shared" ref="E854:J854" si="0">SUM(E6:E853)</f>
+        <f>SUM(E6:E853)</f>
         <v>5986</v>
       </c>
       <c r="F854" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM(F6:F853)</f>
         <v>498142</v>
       </c>
       <c r="G854" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM(G6:G853)</f>
         <v>3590</v>
       </c>
       <c r="H854" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM(H6:H853)</f>
         <v>441343</v>
       </c>
       <c r="I854" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM(I6:I853)</f>
         <v>2738</v>
       </c>
       <c r="J854" s="19">
-        <f t="shared" si="0"/>
+        <f>SUM(J6:J853)</f>
         <v>1892</v>
       </c>
     </row>
@@ -27138,27 +27138,27 @@
         <v>270.03419811320754</v>
       </c>
       <c r="E855" s="11">
-        <f t="shared" ref="E855:J855" si="1">AVERAGE(E6:E853)</f>
+        <f>AVERAGE(E6:E853)</f>
         <v>7.0589622641509431</v>
       </c>
       <c r="F855" s="11">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(F6:F853)</f>
         <v>587.43160377358492</v>
       </c>
       <c r="G855" s="11">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G6:G853)</f>
         <v>4.2334905660377355</v>
       </c>
       <c r="H855" s="11">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H6:H853)</f>
         <v>520.4516509433962</v>
       </c>
       <c r="I855" s="11">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(I6:I853)</f>
         <v>3.2287735849056602</v>
       </c>
       <c r="J855" s="12">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(J6:J853)</f>
         <v>2.2311320754716979</v>
       </c>
       <c r="N855" s="4"/>
@@ -31984,7 +31984,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
